--- a/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
+++ b/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="119">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -347,6 +347,30 @@
   </si>
   <si>
     <t>Automationjtps</t>
+  </si>
+  <si>
+    <t>Field_Name1</t>
+  </si>
+  <si>
+    <t>Field_Name2</t>
+  </si>
+  <si>
+    <t>Field_Name3</t>
+  </si>
+  <si>
+    <t>Field_Name4</t>
+  </si>
+  <si>
+    <t>Field_Name5</t>
+  </si>
+  <si>
+    <t>Field_Name6</t>
+  </si>
+  <si>
+    <t>jTPS</t>
+  </si>
+  <si>
+    <t>pJTPS</t>
   </si>
 </sst>
 </file>
@@ -530,7 +554,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -571,7 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,9 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,12 +955,15 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="13" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="19"/>
+    <col min="14" max="14" width="5.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="21.140625" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,32 +992,50 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1020,25 +1061,31 @@
       <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="14" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1064,19 +1111,29 @@
       <c r="I3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="15" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
@@ -1096,19 +1153,29 @@
       <c r="I4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="15"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="1">
-        <v>3</v>
-      </c>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
@@ -1128,19 +1195,29 @@
       <c r="I5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="11"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
@@ -1160,19 +1237,29 @@
       <c r="I6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="15"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="1">
-        <v>3</v>
-      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="11"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="4"/>
@@ -1192,21 +1279,31 @@
       <c r="I7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="11"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="4"/>
@@ -1226,21 +1323,31 @@
       <c r="I8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1260,23 +1367,33 @@
       <c r="I9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M9" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1298,19 +1415,29 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="19" t="s">
+      <c r="L10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
@@ -1330,21 +1457,31 @@
       <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="14" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="P11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
@@ -1364,19 +1501,29 @@
       <c r="I12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="1">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="R12" s="22"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -1396,23 +1543,33 @@
       <c r="I13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1579,7 @@
       <c r="C14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1438,23 +1595,33 @@
       <c r="I14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="14" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="P14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R14" s="22"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1474,27 +1641,37 @@
       <c r="I15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="14" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="P15" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="27"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1510,64 +1687,84 @@
       <c r="I16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="14" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="P16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="27" t="s">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="27"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="28"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="28"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="P17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="5" t="s">
         <v>19</v>
       </c>
@@ -1583,27 +1780,37 @@
       <c r="I18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="14" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="26" t="s">
+      <c r="P18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="27"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1619,27 +1826,37 @@
       <c r="I19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="14" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R19" s="11"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="11"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
@@ -1655,27 +1872,37 @@
       <c r="I20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="14" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O20" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="11"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="11"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1691,27 +1918,37 @@
       <c r="I21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="14" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R21" s="11"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1727,27 +1964,37 @@
       <c r="I22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="14" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R22" s="28"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="27"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1763,23 +2010,33 @@
       <c r="I23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="1">
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="1">
         <v>1</v>
       </c>
-      <c r="R23" s="28"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M23" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="19"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="27"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
@@ -1795,129 +2052,169 @@
       <c r="I24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="14" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="26" t="s">
+      <c r="P24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="28"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="27"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="30" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="33" t="s">
+      <c r="G25" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="P25" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R25" s="28"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="30" t="s">
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="27"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="33" t="s">
+      <c r="G26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="P26" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="30" t="s">
+      <c r="D27" s="23"/>
+      <c r="E27" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28" t="s">
+      <c r="G27" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="34"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="5" t="s">
         <v>19</v>
       </c>
@@ -1933,27 +2230,37 @@
       <c r="I28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="14" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O28" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R28" s="28"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="27"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="5" t="s">
         <v>19</v>
       </c>
@@ -1969,27 +2276,37 @@
       <c r="I29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="14" t="s">
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="R29" s="28"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="27"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2005,27 +2322,37 @@
       <c r="I30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="14" t="s">
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="R30" s="28"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="27"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="5" t="s">
         <v>19</v>
       </c>
@@ -2041,27 +2368,37 @@
       <c r="I31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="14" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="P31" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="28"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="27"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="5" t="s">
         <v>17</v>
       </c>
@@ -2077,27 +2414,37 @@
       <c r="I32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="14" t="s">
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R32" s="28"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="27"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="5" t="s">
         <v>17</v>
       </c>
@@ -2113,27 +2460,37 @@
       <c r="I33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="14" t="s">
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="R33" s="28"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="27"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
@@ -2149,27 +2506,37 @@
       <c r="I34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="14" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="P34" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R34" s="28"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="27"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="5" t="s">
         <v>19</v>
       </c>
@@ -2185,27 +2552,37 @@
       <c r="I35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="P35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R35" s="28"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="27"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="5" t="s">
         <v>19</v>
       </c>
@@ -2221,27 +2598,37 @@
       <c r="I36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M36" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="P36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R36" s="28"/>
-    </row>
-    <row r="37" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="27"/>
+    </row>
+    <row r="37" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="5" t="s">
         <v>17</v>
       </c>
@@ -2257,27 +2644,37 @@
       <c r="I37" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="14" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="P37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="R37" s="28"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="27"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
         <v>17</v>
       </c>
@@ -2293,27 +2690,37 @@
       <c r="I38" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="14" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="P38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="11"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
@@ -2329,27 +2736,37 @@
       <c r="I39" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="14" t="s">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="P39" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="5" t="s">
         <v>17</v>
       </c>
@@ -2365,27 +2782,37 @@
       <c r="I40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="14" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O40" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="P40" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="R40" s="11"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="5" t="s">
         <v>17</v>
       </c>
@@ -2401,27 +2828,37 @@
       <c r="I41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="14" t="s">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="P41" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="5" t="s">
         <v>17</v>
       </c>
@@ -2437,27 +2874,37 @@
       <c r="I42" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="14" t="s">
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="P42" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="5" t="s">
         <v>17</v>
       </c>
@@ -2473,27 +2920,37 @@
       <c r="I43" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="14" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="P43" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="5" t="s">
         <v>17</v>
       </c>
@@ -2509,27 +2966,37 @@
       <c r="I44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="14" t="s">
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O44" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="P44" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R44" s="11"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="5" t="s">
         <v>17</v>
       </c>
@@ -2545,27 +3012,37 @@
       <c r="I45" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M45" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="P45" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
       <c r="B46" s="2"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="24"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="5" t="s">
         <v>19</v>
       </c>
@@ -2581,27 +3058,37 @@
       <c r="I46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="10"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M46" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N46" s="16" t="s">
+      <c r="P46" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
@@ -2617,27 +3104,37 @@
       <c r="I47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="10"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M47" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N47" s="16" t="s">
+      <c r="P47" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
       <c r="B48" s="2"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="24"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="5" t="s">
         <v>17</v>
       </c>
@@ -2653,27 +3150,37 @@
       <c r="I48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="14" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="P48" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R48" s="11"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="5" t="s">
         <v>17</v>
       </c>
@@ -2689,27 +3196,37 @@
       <c r="I49" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="14" t="s">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="P49" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
       <c r="E50" s="5" t="s">
         <v>17</v>
       </c>
@@ -2725,27 +3242,37 @@
       <c r="I50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="14" t="s">
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="P50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="5" t="s">
         <v>17</v>
       </c>
@@ -2761,27 +3288,37 @@
       <c r="I51" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="14" t="s">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="P51" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="5" t="s">
         <v>17</v>
       </c>
@@ -2797,27 +3334,37 @@
       <c r="I52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="14" t="s">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="P52" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R52" s="11"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="5" t="s">
         <v>17</v>
       </c>
@@ -2833,27 +3380,37 @@
       <c r="I53" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="14" t="s">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="P53" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="5" t="s">
         <v>17</v>
       </c>
@@ -2869,27 +3426,37 @@
       <c r="I54" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="10"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M54" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N54" s="15" t="s">
+      <c r="P54" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="24"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="5" t="s">
         <v>19</v>
       </c>
@@ -2905,27 +3472,37 @@
       <c r="I55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="10"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M55" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N55" s="16" t="s">
+      <c r="P55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="5" t="s">
         <v>19</v>
       </c>
@@ -2941,27 +3518,37 @@
       <c r="I56" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="10"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M56" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O56" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N56" s="16" t="s">
+      <c r="P56" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
       <c r="B57" s="2"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="24"/>
+      <c r="D57" s="23"/>
       <c r="E57" s="5" t="s">
         <v>17</v>
       </c>
@@ -2977,27 +3564,37 @@
       <c r="I57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="14" t="s">
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N57" s="15" t="s">
+      <c r="P57" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R57" s="11"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="11"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
       <c r="E58" s="5" t="s">
         <v>17</v>
       </c>
@@ -3013,27 +3610,37 @@
       <c r="I58" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="14" t="s">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N58" s="15" t="s">
+      <c r="P58" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
       <c r="B59" s="2"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="24"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="5" t="s">
         <v>19</v>
       </c>
@@ -3049,25 +3656,35 @@
       <c r="I59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="20"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="N59" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
       <c r="B60" s="2"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="24"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="5" t="s">
         <v>19</v>
       </c>
@@ -3083,27 +3700,37 @@
       <c r="I60" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="10"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="M60" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="P60" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="5" t="s">
         <v>19</v>
       </c>
@@ -3119,25 +3746,35 @@
       <c r="I61" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="14" t="s">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" s="11"/>
+      <c r="P61" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="5" t="s">
         <v>17</v>
       </c>
@@ -3153,27 +3790,37 @@
       <c r="I62" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="14" t="s">
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N62" s="15" t="s">
+      <c r="P62" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R62" s="11"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+      <c r="T62" s="14"/>
+      <c r="U62" s="14"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
       <c r="B63" s="2"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="24"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="5" t="s">
         <v>19</v>
       </c>
@@ -3189,27 +3836,37 @@
       <c r="I63" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M63" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O63" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N63" s="15" t="s">
+      <c r="P63" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="11"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="5" t="s">
         <v>17</v>
       </c>
@@ -3225,25 +3882,35 @@
       <c r="I64" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="14" t="s">
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O64" s="11"/>
+      <c r="P64" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="10" t="s">
-        <v>97</v>
-      </c>
+      <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="11"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
       <c r="E65" s="5" t="s">
         <v>19</v>
       </c>
@@ -3259,27 +3926,37 @@
       <c r="I65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="10"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M65" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O65" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N65" s="16" t="s">
+      <c r="P65" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="11"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
       <c r="E66" s="5" t="s">
         <v>19</v>
       </c>
@@ -3295,27 +3972,37 @@
       <c r="I66" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="10"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M66" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O66" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="16" t="s">
+      <c r="P66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="11"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
       <c r="B67" s="2"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="24"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="5" t="s">
         <v>17</v>
       </c>
@@ -3331,27 +4018,37 @@
       <c r="I67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="14" t="s">
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O67" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N67" s="15" t="s">
+      <c r="P67" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="11"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="5" t="s">
         <v>17</v>
       </c>
@@ -3367,27 +4064,37 @@
       <c r="I68" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="14" t="s">
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O68" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N68" s="15" t="s">
+      <c r="P68" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R68" s="28"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="27"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="5" t="s">
         <v>17</v>
       </c>
@@ -3403,27 +4110,37 @@
       <c r="I69" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="M69" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O69" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N69" s="15" t="s">
+      <c r="P69" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R69" s="28"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="27"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
       <c r="B70" s="2"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="24"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="5" t="s">
         <v>19</v>
       </c>
@@ -3439,27 +4156,37 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="M70" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O70" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="16" t="s">
+      <c r="P70" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R70" s="28"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="27"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="5" t="s">
         <v>19</v>
       </c>
@@ -3475,27 +4202,37 @@
       <c r="I71" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="10"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="M71" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N71" s="16" t="s">
+      <c r="P71" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="R71" s="28"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="27"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="24"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="5" t="s">
         <v>17</v>
       </c>
@@ -3511,27 +4248,37 @@
       <c r="I72" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="14" t="s">
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O72" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N72" s="15" t="s">
+      <c r="P72" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="R72" s="28"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="27"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="24"/>
+      <c r="D73" s="23"/>
       <c r="E73" s="5" t="s">
         <v>17</v>
       </c>
@@ -3547,27 +4294,37 @@
       <c r="I73" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="14" t="s">
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O73" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N73" s="15" t="s">
+      <c r="P73" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="R73" s="28"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="27"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="5" t="s">
         <v>17</v>
       </c>
@@ -3583,27 +4340,37 @@
       <c r="I74" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="14" t="s">
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O74" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N74" s="15" t="s">
+      <c r="P74" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R74" s="28"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="27"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="5" t="s">
         <v>17</v>
       </c>
@@ -3619,28 +4386,38 @@
       <c r="I75" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="15" t="s">
+      <c r="K75" s="11"/>
+      <c r="L75" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O75" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="P75" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R75" s="28"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="s">
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="15"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="27"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="24"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="5" t="s">
         <v>19</v>
       </c>
@@ -3656,27 +4433,37 @@
       <c r="I76" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="14" t="s">
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O76" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="N76" s="15" t="s">
+      <c r="P76" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="R76" s="28"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="14"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="27"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="5" t="s">
         <v>19</v>
       </c>
@@ -3692,43 +4479,59 @@
       <c r="I77" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="10"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="M77" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O77" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N77" s="15" t="s">
+      <c r="P77" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="27" t="s">
-        <v>66</v>
-      </c>
+      <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="5"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="7"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="10"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="26"/>
       <c r="M78" s="11"/>
-      <c r="N78" s="15"/>
+      <c r="N78" s="11"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="27"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="11"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>103</v>
       </c>
@@ -3756,29 +4559,409 @@
       <c r="I79" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="P79" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="L79" s="10" t="s">
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="W79" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N79" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="11"/>
+      <c r="X79" s="11"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+    </row>
+    <row r="93" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+    </row>
+    <row r="115" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+    </row>
+    <row r="125" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+    </row>
+    <row r="130" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+    </row>
+    <row r="135" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+    </row>
+    <row r="139" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+    </row>
+    <row r="140" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+    </row>
+    <row r="141" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+    </row>
+    <row r="142" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+    </row>
+    <row r="143" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+    </row>
+    <row r="144" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+    </row>
+    <row r="148" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+    </row>
+    <row r="149" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+    </row>
+    <row r="150" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+    </row>
+    <row r="151" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+    </row>
+    <row r="152" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+    </row>
+    <row r="153" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+    </row>
+    <row r="154" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M154" s="11"/>
+      <c r="N154" s="11"/>
+    </row>
+    <row r="155" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M155" s="11"/>
+      <c r="N155" s="11"/>
+    </row>
+    <row r="156" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+    </row>
+    <row r="157" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M157" s="11"/>
+      <c r="N157" s="11"/>
+    </row>
+    <row r="158" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+    </row>
+    <row r="159" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+    </row>
+    <row r="160" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M160" s="11"/>
+      <c r="N160" s="11"/>
+    </row>
+    <row r="161" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+    </row>
+    <row r="162" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M162" s="11"/>
+      <c r="N162" s="11"/>
+    </row>
+    <row r="163" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M163" s="11"/>
+      <c r="N163" s="11"/>
+    </row>
+    <row r="164" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M164" s="11"/>
+      <c r="N164" s="11"/>
+    </row>
+    <row r="165" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M165" s="11"/>
+      <c r="N165" s="11"/>
+    </row>
+    <row r="166" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M166" s="11"/>
+      <c r="N166" s="11"/>
+    </row>
+    <row r="167" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M167" s="11"/>
+      <c r="N167" s="11"/>
+    </row>
+    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M168" s="11"/>
+      <c r="N168" s="11"/>
+    </row>
+    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M169" s="11"/>
+      <c r="N169" s="11"/>
+    </row>
+    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M170" s="11"/>
+      <c r="N170" s="11"/>
+    </row>
+    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M171" s="11"/>
+      <c r="N171" s="11"/>
+    </row>
+    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M172" s="11"/>
+      <c r="N172" s="11"/>
+    </row>
+    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M173" s="11"/>
+      <c r="N173" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
+++ b/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="117">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -244,9 +244,6 @@
     <t>txt_Value</t>
   </si>
   <si>
-    <t>Automati</t>
-  </si>
-  <si>
     <t>5.3.0.4</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t>5.2.6</t>
   </si>
   <si>
-    <t>allrows,value^Automati,Description^Automation,short description^Automation</t>
-  </si>
-  <si>
     <t>5.3.2</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>wnd_Confirmationdialog</t>
   </si>
   <si>
-    <t>btn_No</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -304,9 +295,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>btn_Cancel</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -319,9 +307,6 @@
     <t>DeleteRow</t>
   </si>
   <si>
-    <t>allrows,value^Automati</t>
-  </si>
-  <si>
     <t>elm_deleteConfirmation</t>
   </si>
   <si>
@@ -337,18 +322,9 @@
     <t>Revolve Periods</t>
   </si>
   <si>
-    <t>Revolve Periods,setproperty,innertext</t>
-  </si>
-  <si>
     <t>Aut</t>
   </si>
   <si>
-    <t>value^3,description^30,shortdescription^15</t>
-  </si>
-  <si>
-    <t>Automationjtps</t>
-  </si>
-  <si>
     <t>Field_Name1</t>
   </si>
   <si>
@@ -371,6 +347,24 @@
   </si>
   <si>
     <t>pJTPS</t>
+  </si>
+  <si>
+    <t>value^8,description^30,shortdescription^15</t>
+  </si>
+  <si>
+    <t>elm_Changessavedtothedatabase</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut,Description^Automation,short description^Automation</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>allrows,value^Aut</t>
+  </si>
+  <si>
+    <t>Review Reason Types,setproperty,innertext</t>
   </si>
 </sst>
 </file>
@@ -946,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,22 +1004,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
@@ -1043,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1093,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1113,17 +1107,19 @@
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="M3" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="P3" s="15"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -1159,10 +1155,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1197,15 +1193,16 @@
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="10"/>
+      <c r="L5" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="M5" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="11"/>
@@ -1243,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1285,13 +1282,12 @@
         <v>66</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
       <c r="Q7" s="11"/>
@@ -1327,10 +1323,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1365,18 +1361,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1419,13 +1415,12 @@
         <v>66</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="11"/>
@@ -1461,13 +1456,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>44</v>
@@ -1507,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1549,10 +1544,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1577,7 +1572,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
@@ -1601,13 +1596,13 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>50</v>
@@ -1647,13 +1642,13 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P15" s="25" t="s">
         <v>53</v>
@@ -1693,13 +1688,13 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>54</v>
@@ -1738,13 +1733,13 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>55</v>
@@ -1786,13 +1781,13 @@
         <v>59</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P18" s="25" t="s">
         <v>55</v>
@@ -1832,13 +1827,13 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>60</v>
@@ -1878,13 +1873,13 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>61</v>
@@ -1924,13 +1919,13 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>62</v>
@@ -1970,13 +1965,13 @@
         <v>64</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P22" s="25" t="s">
         <v>55</v>
@@ -2016,10 +2011,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -2058,13 +2053,13 @@
         <v>65</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>55</v>
@@ -2104,13 +2099,13 @@
         <v>66</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P25" s="36" t="s">
         <v>54</v>
@@ -2147,16 +2142,16 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P26" s="36" t="s">
         <v>68</v>
@@ -2192,10 +2187,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="26"/>
       <c r="M27" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="36"/>
@@ -2236,13 +2231,13 @@
         <v>66</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>54</v>
@@ -2279,16 +2274,16 @@
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="26" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>73</v>
@@ -2325,16 +2320,16 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>75</v>
@@ -2357,7 +2352,7 @@
         <v>19</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>19</v>
@@ -2374,16 +2369,16 @@
         <v>74</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
@@ -2400,10 +2395,10 @@
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>19</v>
@@ -2420,13 +2415,13 @@
         <v>66</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>50</v>
@@ -2446,10 +2441,10 @@
       <c r="C33" s="4"/>
       <c r="D33" s="23"/>
       <c r="E33" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>19</v>
@@ -2463,20 +2458,18 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="26" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P33" s="15"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
@@ -2504,24 +2497,24 @@
         <v>21</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="26" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
@@ -2541,7 +2534,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>19</v>
@@ -2552,22 +2545,22 @@
       <c r="I35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="1" t="s">
-        <v>107</v>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
@@ -2587,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>19</v>
@@ -2598,16 +2591,16 @@
       <c r="I36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="22" t="s">
-        <v>47</v>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>37</v>
@@ -2624,16 +2617,16 @@
       <c r="W36" s="9"/>
       <c r="X36" s="27"/>
     </row>
-    <row r="37" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>19</v>
@@ -2642,24 +2635,24 @@
         <v>21</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
-      <c r="L37" s="10" t="s">
-        <v>83</v>
+      <c r="L37" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>68</v>
+        <v>110</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
@@ -2670,16 +2663,16 @@
       <c r="W37" s="37"/>
       <c r="X37" s="27"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="4"/>
       <c r="D38" s="23"/>
       <c r="E38" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
@@ -2688,24 +2681,24 @@
         <v>21</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
-      <c r="L38" s="26" t="s">
-        <v>66</v>
+      <c r="L38" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
@@ -2722,10 +2715,10 @@
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>19</v>
@@ -2738,20 +2731,20 @@
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
-      <c r="L39" s="10" t="s">
-        <v>76</v>
+      <c r="L39" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
@@ -2768,10 +2761,10 @@
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>19</v>
@@ -2784,20 +2777,20 @@
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
-      <c r="L40" s="26" t="s">
-        <v>86</v>
+      <c r="L40" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
@@ -2814,10 +2807,10 @@
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>19</v>
@@ -2831,19 +2824,19 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
@@ -2860,10 +2853,10 @@
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>19</v>
@@ -2877,19 +2870,19 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="26" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
@@ -2900,16 +2893,16 @@
       <c r="W42" s="9"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>19</v>
@@ -2918,24 +2911,24 @@
         <v>21</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="26" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
@@ -2946,16 +2939,16 @@
       <c r="W43" s="9"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>19</v>
@@ -2964,24 +2957,24 @@
         <v>21</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="26" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
@@ -2998,10 +2991,10 @@
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>19</v>
@@ -3014,20 +3007,20 @@
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="26" t="s">
         <v>66</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O45" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
@@ -3047,7 +3040,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>19</v>
@@ -3061,13 +3054,13 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>37</v>
@@ -3093,7 +3086,7 @@
         <v>19</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>19</v>
@@ -3110,10 +3103,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>37</v>
@@ -3136,10 +3129,10 @@
       <c r="C48" s="4"/>
       <c r="D48" s="23"/>
       <c r="E48" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>19</v>
@@ -3156,13 +3149,13 @@
         <v>66</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>54</v>
@@ -3182,10 +3175,10 @@
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>19</v>
@@ -3199,16 +3192,16 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>75</v>
@@ -3228,10 +3221,10 @@
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>19</v>
@@ -3248,13 +3241,13 @@
         <v>66</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>50</v>
@@ -3274,10 +3267,10 @@
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>19</v>
@@ -3294,16 +3287,16 @@
         <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
@@ -3320,10 +3313,10 @@
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>19</v>
@@ -3340,16 +3333,16 @@
         <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -3366,10 +3359,10 @@
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>19</v>
@@ -3386,13 +3379,13 @@
         <v>66</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>44</v>
@@ -3412,10 +3405,10 @@
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>19</v>
@@ -3428,20 +3421,20 @@
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
-      <c r="L54" s="10" t="s">
-        <v>66</v>
+      <c r="L54" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O54" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P54" s="15" t="s">
-        <v>92</v>
+        <v>37</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -3461,7 +3454,7 @@
         <v>19</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>19</v>
@@ -3474,14 +3467,14 @@
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
-      <c r="L55" s="1" t="s">
-        <v>107</v>
+      <c r="L55" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>37</v>
@@ -3507,7 +3500,7 @@
         <v>19</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>19</v>
@@ -3520,20 +3513,20 @@
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
-      <c r="L56" s="22" t="s">
-        <v>47</v>
+      <c r="L56" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -3550,10 +3543,10 @@
       <c r="C57" s="4"/>
       <c r="D57" s="23"/>
       <c r="E57" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>19</v>
@@ -3566,20 +3559,20 @@
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
-      <c r="L57" s="10" t="s">
-        <v>95</v>
+      <c r="L57" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
@@ -3596,10 +3589,10 @@
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>19</v>
@@ -3608,25 +3601,23 @@
         <v>21</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
-      <c r="L58" s="26" t="s">
-        <v>66</v>
+      <c r="L58" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P58" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
       <c r="S58" s="14"/>
@@ -3645,7 +3636,7 @@
         <v>19</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>19</v>
@@ -3654,22 +3645,24 @@
         <v>21</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
-      <c r="L59" s="10" t="s">
-        <v>90</v>
+      <c r="L59" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="Q59" s="19"/>
       <c r="R59" s="19"/>
@@ -3689,7 +3682,7 @@
         <v>19</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>19</v>
@@ -3702,20 +3695,20 @@
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
-      <c r="L60" s="26" t="s">
-        <v>66</v>
+      <c r="L60" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O60" s="11" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -3735,7 +3728,7 @@
         <v>19</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>19</v>
@@ -3744,22 +3737,24 @@
         <v>21</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
@@ -3776,10 +3771,10 @@
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
       <c r="E62" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>19</v>
@@ -3796,16 +3791,16 @@
         <v>66</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
@@ -3825,7 +3820,7 @@
         <v>19</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>19</v>
@@ -3834,25 +3829,23 @@
         <v>21</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="10" t="s">
-        <v>66</v>
+      <c r="L63" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O63" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P63" s="15" t="s">
-        <v>92</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P63" s="15"/>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -3868,10 +3861,10 @@
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
       <c r="E64" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>19</v>
@@ -3880,22 +3873,24 @@
         <v>21</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
-      <c r="L64" s="10" t="s">
-        <v>97</v>
+      <c r="L64" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
@@ -3915,7 +3910,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>19</v>
@@ -3929,13 +3924,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>37</v>
@@ -3961,7 +3956,7 @@
         <v>19</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>19</v>
@@ -3978,10 +3973,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>37</v>
@@ -4004,10 +3999,10 @@
       <c r="C67" s="4"/>
       <c r="D67" s="23"/>
       <c r="E67" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>19</v>
@@ -4016,7 +4011,7 @@
         <v>21</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -4024,13 +4019,13 @@
         <v>95</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>73</v>
@@ -4050,10 +4045,10 @@
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>19</v>
@@ -4062,24 +4057,24 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="26" t="s">
-        <v>66</v>
+      <c r="L68" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
@@ -4096,10 +4091,10 @@
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>19</v>
@@ -4116,16 +4111,16 @@
         <v>66</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
@@ -4145,7 +4140,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>19</v>
@@ -4156,22 +4151,21 @@
       <c r="I70" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11"/>
-      <c r="L70" s="1" t="s">
-        <v>107</v>
+      <c r="L70" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O70" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P70" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -4191,7 +4185,7 @@
         <v>19</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>19</v>
@@ -4204,20 +4198,20 @@
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
-      <c r="L71" s="22" t="s">
-        <v>47</v>
+      <c r="L71" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O71" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" s="16" t="s">
-        <v>40</v>
+        <v>110</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
@@ -4234,10 +4228,10 @@
       <c r="C72" s="4"/>
       <c r="D72" s="23"/>
       <c r="E72" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>19</v>
@@ -4246,24 +4240,24 @@
         <v>21</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
-      <c r="L72" s="10" t="s">
-        <v>99</v>
+      <c r="L72" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
@@ -4280,36 +4274,30 @@
       <c r="C73" s="4"/>
       <c r="D73" s="23"/>
       <c r="E73" s="5" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
-      <c r="L73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P73" s="15" t="s">
-        <v>68</v>
+      <c r="L73" s="10"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
@@ -4329,7 +4317,7 @@
         <v>17</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>19</v>
@@ -4346,13 +4334,13 @@
         <v>66</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N74" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P74" s="15" t="s">
         <v>53</v>
@@ -4375,7 +4363,7 @@
         <v>17</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>19</v>
@@ -4391,16 +4379,16 @@
         <v>66</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N75" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="P75" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q75" s="15"/>
       <c r="R75" s="15"/>
@@ -4422,7 +4410,7 @@
         <v>19</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>19</v>
@@ -4439,13 +4427,13 @@
         <v>66</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O76" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P76" s="15" t="s">
         <v>44</v>
@@ -4468,7 +4456,7 @@
         <v>19</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>19</v>
@@ -4485,16 +4473,16 @@
         <v>66</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P77" s="15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
@@ -4533,31 +4521,31 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
@@ -4565,10 +4553,10 @@
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="P79" s="38" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
@@ -4576,10 +4564,10 @@
       <c r="T79" s="11"/>
       <c r="U79" s="11"/>
       <c r="V79" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="X79" s="11"/>
     </row>

--- a/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
+++ b/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="116">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -283,9 +283,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>wnd_Confirmationdialog</t>
-  </si>
-  <si>
     <t>elm_ErrorDescriptionrequired</t>
   </si>
   <si>
@@ -364,7 +361,7 @@
     <t>allrows,value^Aut</t>
   </si>
   <si>
-    <t>Review Reason Types,setproperty,innertext</t>
+    <t>Revolve Periods,setproperty,innertext</t>
   </si>
 </sst>
 </file>
@@ -548,7 +545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -632,9 +629,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -938,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X173"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73:X73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,22 +998,22 @@
         <v>13</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>9</v>
@@ -1037,7 +1031,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5" t="s">
@@ -1087,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
@@ -1111,10 +1105,10 @@
         <v>66</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>29</v>
@@ -1155,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="15"/>
@@ -1197,10 +1191,10 @@
         <v>66</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O5" s="15" t="s">
         <v>29</v>
@@ -1240,10 +1234,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O6" s="11"/>
       <c r="P6" s="15"/>
@@ -1282,10 +1276,10 @@
         <v>66</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>35</v>
@@ -1323,10 +1317,10 @@
       <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>37</v>
@@ -1361,18 +1355,18 @@
         <v>21</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O9" s="11" t="s">
         <v>37</v>
@@ -1415,10 +1409,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O10" s="18" t="s">
         <v>42</v>
@@ -1456,13 +1450,13 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>44</v>
@@ -1502,10 +1496,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="16"/>
@@ -1544,10 +1538,10 @@
         <v>47</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>37</v>
@@ -1565,15 +1559,9 @@
       <c r="X13" s="21"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="23"/>
       <c r="E14" s="5" t="s">
         <v>19</v>
@@ -1596,13 +1584,13 @@
         <v>51</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P14" s="15" t="s">
         <v>50</v>
@@ -1642,13 +1630,13 @@
         <v>51</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" s="25" t="s">
         <v>53</v>
@@ -1688,13 +1676,13 @@
         <v>51</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>54</v>
@@ -1733,13 +1721,13 @@
         <v>51</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>55</v>
@@ -1781,13 +1769,13 @@
         <v>59</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P18" s="25" t="s">
         <v>55</v>
@@ -1827,13 +1815,13 @@
         <v>51</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>60</v>
@@ -1873,13 +1861,13 @@
         <v>51</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P20" s="15" t="s">
         <v>61</v>
@@ -1919,13 +1907,13 @@
         <v>51</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P21" s="15" t="s">
         <v>62</v>
@@ -1965,13 +1953,13 @@
         <v>64</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P22" s="25" t="s">
         <v>55</v>
@@ -2011,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="16"/>
@@ -2053,13 +2041,13 @@
         <v>65</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>55</v>
@@ -2099,13 +2087,13 @@
         <v>66</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P25" s="36" t="s">
         <v>54</v>
@@ -2142,16 +2130,16 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P26" s="36" t="s">
         <v>68</v>
@@ -2187,10 +2175,10 @@
       <c r="K27" s="11"/>
       <c r="L27" s="26"/>
       <c r="M27" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O27" s="34"/>
       <c r="P27" s="36"/>
@@ -2231,13 +2219,13 @@
         <v>66</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>54</v>
@@ -2277,13 +2265,13 @@
         <v>74</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>73</v>
@@ -2320,16 +2308,16 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>75</v>
@@ -2369,13 +2357,13 @@
         <v>74</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>77</v>
@@ -2415,13 +2403,13 @@
         <v>66</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>50</v>
@@ -2461,13 +2449,13 @@
         <v>51</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="14"/>
@@ -2505,13 +2493,13 @@
         <v>80</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>75</v>
@@ -2551,13 +2539,13 @@
         <v>66</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>44</v>
@@ -2594,13 +2582,13 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="11" t="s">
         <v>37</v>
@@ -2643,10 +2631,10 @@
         <v>47</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>37</v>
@@ -2686,16 +2674,16 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>68</v>
@@ -2735,13 +2723,13 @@
         <v>66</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>54</v>
@@ -2778,16 +2766,16 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O40" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>75</v>
@@ -2827,13 +2815,13 @@
         <v>84</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>73</v>
@@ -2873,13 +2861,13 @@
         <v>84</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>77</v>
@@ -2919,13 +2907,13 @@
         <v>66</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>50</v>
@@ -2965,13 +2953,13 @@
         <v>88</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>87</v>
@@ -3011,13 +2999,13 @@
         <v>66</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>44</v>
@@ -3054,13 +3042,13 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O46" s="11" t="s">
         <v>37</v>
@@ -3103,10 +3091,10 @@
         <v>47</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O47" s="11" t="s">
         <v>37</v>
@@ -3149,13 +3137,13 @@
         <v>66</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>54</v>
@@ -3192,16 +3180,16 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>75</v>
@@ -3241,13 +3229,13 @@
         <v>66</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>50</v>
@@ -3287,16 +3275,16 @@
         <v>51</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
@@ -3333,16 +3321,16 @@
         <v>51</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O52" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
@@ -3379,13 +3367,13 @@
         <v>66</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>44</v>
@@ -3422,13 +3410,13 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O54" s="11" t="s">
         <v>37</v>
@@ -3471,10 +3459,10 @@
         <v>47</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O55" s="11" t="s">
         <v>37</v>
@@ -3514,16 +3502,16 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P56" s="15" t="s">
         <v>73</v>
@@ -3563,13 +3551,13 @@
         <v>66</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P57" s="15" t="s">
         <v>44</v>
@@ -3606,16 +3594,16 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
@@ -3650,13 +3638,13 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
       <c r="L59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O59" s="11" t="s">
         <v>37</v>
@@ -3699,10 +3687,10 @@
         <v>47</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O60" s="11" t="s">
         <v>37</v>
@@ -3742,16 +3730,16 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P61" s="15" t="s">
         <v>73</v>
@@ -3791,13 +3779,13 @@
         <v>66</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>50</v>
@@ -3837,13 +3825,13 @@
         <v>51</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P63" s="15"/>
       <c r="Q63" s="11"/>
@@ -3881,13 +3869,13 @@
         <v>66</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O64" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>44</v>
@@ -3924,13 +3912,13 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O65" s="11" t="s">
         <v>37</v>
@@ -3973,10 +3961,10 @@
         <v>47</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O66" s="11" t="s">
         <v>37</v>
@@ -4016,16 +4004,16 @@
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>73</v>
@@ -4057,21 +4045,21 @@
         <v>21</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
       <c r="L68" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P68" s="15" t="s">
         <v>68</v>
@@ -4111,13 +4099,13 @@
         <v>66</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P69" s="15" t="s">
         <v>53</v>
@@ -4156,16 +4144,16 @@
         <v>66</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P70" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
@@ -4202,13 +4190,13 @@
         <v>66</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P71" s="15" t="s">
         <v>50</v>
@@ -4248,13 +4236,13 @@
         <v>66</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P72" s="15" t="s">
         <v>44</v>
@@ -4269,307 +4257,102 @@
       <c r="X72" s="27"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="23"/>
+      <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E73" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="O73" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P73" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="U73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W73" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X73" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O74" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P74" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="14"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="27"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="11"/>
-      <c r="L75" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O75" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P75" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
-      <c r="U75" s="15"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="27"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="P76" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="14"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="27"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O77" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P77" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q77" s="11"/>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="26"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="11"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="10"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
-      <c r="O79" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P79" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
-      <c r="V79" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="W79" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="X79" s="11"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M80" s="11"/>
@@ -4922,30 +4705,6 @@
     <row r="167" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M167" s="11"/>
       <c r="N167" s="11"/>
-    </row>
-    <row r="168" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M168" s="11"/>
-      <c r="N168" s="11"/>
-    </row>
-    <row r="169" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
-    </row>
-    <row r="170" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-    </row>
-    <row r="171" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
-    </row>
-    <row r="172" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
-    </row>
-    <row r="173" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
+++ b/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>allrows,value^ZXY</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Revolve Periods</t>
   </si>
 </sst>
 </file>
@@ -974,7 +980,7 @@
   <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,8 +1066,12 @@
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13" t="s">
         <v>18</v>
@@ -1106,8 +1116,12 @@
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
         <v>18</v>
@@ -2050,7 +2064,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="30"/>
     </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="26"/>

--- a/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
+++ b/TestData/JTPS-DEVQA/RevolvePeriods.xlsx
@@ -985,7 +985,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
